--- a/프로젝트관리/실력.xlsx
+++ b/프로젝트관리/실력.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\programming\개발공부_엑기스\프로젝트관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6221F2-0252-4DF7-BA5E-705027664115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12855"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="실력" sheetId="1" r:id="rId1"/>
     <sheet name="후속 조치" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -543,10 +554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flrxbox(고급)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>색깔 이해도(명도,채도,색상,톤, 보색)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,13 +631,17 @@
   </si>
   <si>
     <t>form 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flexbox(고급)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,554 +988,553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="9" style="1"/>
+    <col min="3" max="3" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C4" s="1">
+        <v>4000</v>
+      </c>
       <c r="D4" s="1">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="E4" s="1">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F4" s="1">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G4" s="1">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H4" s="1">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I4" s="1">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J4" s="1">
-        <v>2600</v>
-      </c>
-      <c r="K4" s="1">
         <v>2400</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E16" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E19" s="1" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F26" s="1" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J29" s="1" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G32" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F32" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E44" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1533,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1544,64 +1554,64 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
         <v>134</v>
-      </c>
-      <c r="E15" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
